--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H2">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I2">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J2">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.3288821998346</v>
+        <v>0.001620666666666667</v>
       </c>
       <c r="N2">
-        <v>10.3288821998346</v>
+        <v>0.004862</v>
       </c>
       <c r="O2">
-        <v>0.4789869895585893</v>
+        <v>4.949959039648896E-05</v>
       </c>
       <c r="P2">
-        <v>0.4789869895585893</v>
+        <v>4.954707633626946E-05</v>
       </c>
       <c r="Q2">
-        <v>160.3914573804216</v>
+        <v>0.04397657337088889</v>
       </c>
       <c r="R2">
-        <v>160.3914573804216</v>
+        <v>0.3957891603379999</v>
       </c>
       <c r="S2">
-        <v>0.01531627089918397</v>
+        <v>2.349764554609201E-06</v>
       </c>
       <c r="T2">
-        <v>0.01531627089918397</v>
+        <v>2.579575232543854E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H3">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I3">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J3">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.1412173727476</v>
+        <v>0.1285833333333333</v>
       </c>
       <c r="N3">
-        <v>11.1412173727476</v>
+        <v>0.38575</v>
       </c>
       <c r="O3">
-        <v>0.5166578595964316</v>
+        <v>0.003927286506673306</v>
       </c>
       <c r="P3">
-        <v>0.5166578595964316</v>
+        <v>0.003931054030587401</v>
       </c>
       <c r="Q3">
-        <v>173.0057577223288</v>
+        <v>3.489091562694444</v>
       </c>
       <c r="R3">
-        <v>173.0057577223288</v>
+        <v>31.40182406424999</v>
       </c>
       <c r="S3">
-        <v>0.01652084902569897</v>
+        <v>0.0001864297978075893</v>
       </c>
       <c r="T3">
-        <v>0.01652084902569897</v>
+        <v>0.0002046629259468926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H4">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I4">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J4">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09391453425854809</v>
+        <v>20.26120333333333</v>
       </c>
       <c r="N4">
-        <v>0.09391453425854809</v>
+        <v>60.78361</v>
       </c>
       <c r="O4">
-        <v>0.004355150844979071</v>
+        <v>0.6188325376017957</v>
       </c>
       <c r="P4">
-        <v>0.004355150844979071</v>
+        <v>0.6194261959407716</v>
       </c>
       <c r="Q4">
-        <v>1.458346481981688</v>
+        <v>549.7850442024877</v>
       </c>
       <c r="R4">
-        <v>1.458346481981688</v>
+        <v>4948.06539782239</v>
       </c>
       <c r="S4">
-        <v>0.0001392619666141269</v>
+        <v>0.02937621807469959</v>
       </c>
       <c r="T4">
-        <v>0.0001392619666141269</v>
+        <v>0.03224925851513881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>192.6456137956</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H5">
-        <v>192.6456137956</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I5">
-        <v>0.3966984815678524</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J5">
-        <v>0.3966984815678524</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.3288821998346</v>
+        <v>12.25546733333333</v>
       </c>
       <c r="N5">
-        <v>10.3288821998346</v>
+        <v>36.766402</v>
       </c>
       <c r="O5">
-        <v>0.4789869895585893</v>
+        <v>0.3743154749799779</v>
       </c>
       <c r="P5">
-        <v>0.4789869895585893</v>
+        <v>0.3746745632463945</v>
       </c>
       <c r="Q5">
-        <v>1989.813851209584</v>
+        <v>332.5504679425331</v>
       </c>
       <c r="R5">
-        <v>1989.813851209584</v>
+        <v>2992.954211482798</v>
       </c>
       <c r="S5">
-        <v>0.1900134114486491</v>
+        <v>0.01776889926370071</v>
       </c>
       <c r="T5">
-        <v>0.1900134114486491</v>
+        <v>0.0195067256250413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>192.6456137956</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H6">
-        <v>192.6456137956</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I6">
-        <v>0.3966984815678524</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J6">
-        <v>0.3966984815678524</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1412173727476</v>
+        <v>0.094137</v>
       </c>
       <c r="N6">
-        <v>11.1412173727476</v>
+        <v>0.188274</v>
       </c>
       <c r="O6">
-        <v>0.5166578595964316</v>
+        <v>0.002875201321156488</v>
       </c>
       <c r="P6">
-        <v>0.5166578595964316</v>
+        <v>0.001918639705910077</v>
       </c>
       <c r="Q6">
-        <v>2146.306659203163</v>
+        <v>2.554394912021</v>
       </c>
       <c r="R6">
-        <v>2146.306659203163</v>
+        <v>15.326369472126</v>
       </c>
       <c r="S6">
-        <v>0.2049573883920011</v>
+        <v>0.0001364869102492265</v>
       </c>
       <c r="T6">
-        <v>0.2049573883920011</v>
+        <v>9.989036349896368E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H7">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J7">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09391453425854809</v>
+        <v>0.001620666666666667</v>
       </c>
       <c r="N7">
-        <v>0.09391453425854809</v>
+        <v>0.004862</v>
       </c>
       <c r="O7">
-        <v>0.004355150844979071</v>
+        <v>4.949959039648896E-05</v>
       </c>
       <c r="P7">
-        <v>0.004355150844979071</v>
+        <v>4.954707633626946E-05</v>
       </c>
       <c r="Q7">
-        <v>18.0922230965659</v>
+        <v>0.3356744377653334</v>
       </c>
       <c r="R7">
-        <v>18.0922230965659</v>
+        <v>3.021069939888001</v>
       </c>
       <c r="S7">
-        <v>0.001727681727202147</v>
+        <v>1.793581980790446E-05</v>
       </c>
       <c r="T7">
-        <v>0.001727681727202147</v>
+        <v>1.968997126162481E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.644635731249</v>
+        <v>207.121208</v>
       </c>
       <c r="H8">
-        <v>83.644635731249</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.1722421773956863</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J8">
-        <v>0.1722421773956863</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>10.3288821998346</v>
+        <v>0.1285833333333333</v>
       </c>
       <c r="N8">
-        <v>10.3288821998346</v>
+        <v>0.38575</v>
       </c>
       <c r="O8">
-        <v>0.4789869895585893</v>
+        <v>0.003927286506673306</v>
       </c>
       <c r="P8">
-        <v>0.4789869895585893</v>
+        <v>0.003931054030587401</v>
       </c>
       <c r="Q8">
-        <v>863.9555891161469</v>
+        <v>26.63233532866667</v>
       </c>
       <c r="R8">
-        <v>863.9555891161469</v>
+        <v>239.691017958</v>
       </c>
       <c r="S8">
-        <v>0.08250176202577626</v>
+        <v>0.001423023959460951</v>
       </c>
       <c r="T8">
-        <v>0.08250176202577626</v>
+        <v>0.00156219794614804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.644635731249</v>
+        <v>207.121208</v>
       </c>
       <c r="H9">
-        <v>83.644635731249</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.1722421773956863</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J9">
-        <v>0.1722421773956863</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1412173727476</v>
+        <v>20.26120333333333</v>
       </c>
       <c r="N9">
-        <v>11.1412173727476</v>
+        <v>60.78361</v>
       </c>
       <c r="O9">
-        <v>0.5166578595964316</v>
+        <v>0.6188325376017957</v>
       </c>
       <c r="P9">
-        <v>0.5166578595964316</v>
+        <v>0.6194261959407716</v>
       </c>
       <c r="Q9">
-        <v>931.9030687461359</v>
+        <v>4196.524909933627</v>
       </c>
       <c r="R9">
-        <v>931.9030687461359</v>
+        <v>37768.72418940264</v>
       </c>
       <c r="S9">
-        <v>0.08899027470548415</v>
+        <v>0.2242295097149197</v>
       </c>
       <c r="T9">
-        <v>0.08899027470548415</v>
+        <v>0.2461595092714542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.644635731249</v>
+        <v>207.121208</v>
       </c>
       <c r="H10">
-        <v>83.644635731249</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.1722421773956863</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J10">
-        <v>0.1722421773956863</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09391453425854809</v>
+        <v>12.25546733333333</v>
       </c>
       <c r="N10">
-        <v>0.09391453425854809</v>
+        <v>36.766402</v>
       </c>
       <c r="O10">
-        <v>0.004355150844979071</v>
+        <v>0.3743154749799779</v>
       </c>
       <c r="P10">
-        <v>0.004355150844979071</v>
+        <v>0.3746745632463945</v>
       </c>
       <c r="Q10">
-        <v>7.85544700792616</v>
+        <v>2538.367198684539</v>
       </c>
       <c r="R10">
-        <v>7.85544700792616</v>
+        <v>22845.30478816085</v>
       </c>
       <c r="S10">
-        <v>0.0007501406644258582</v>
+        <v>0.1356305144502218</v>
       </c>
       <c r="T10">
-        <v>0.0007501406644258582</v>
+        <v>0.1488953925901574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.8765938314969</v>
+        <v>207.121208</v>
       </c>
       <c r="H11">
-        <v>93.8765938314969</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.1933119653958476</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J11">
-        <v>0.1933119653958476</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3288821998346</v>
+        <v>0.094137</v>
       </c>
       <c r="N11">
-        <v>10.3288821998346</v>
+        <v>0.188274</v>
       </c>
       <c r="O11">
-        <v>0.4789869895585893</v>
+        <v>0.002875201321156488</v>
       </c>
       <c r="P11">
-        <v>0.4789869895585893</v>
+        <v>0.001918639705910077</v>
       </c>
       <c r="Q11">
-        <v>969.640279007251</v>
+        <v>19.497769157496</v>
       </c>
       <c r="R11">
-        <v>969.640279007251</v>
+        <v>116.986614944976</v>
       </c>
       <c r="S11">
-        <v>0.09259391635061121</v>
+        <v>0.001041808475477192</v>
       </c>
       <c r="T11">
-        <v>0.09259391635061121</v>
+        <v>0.0007624659912198992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.8765938314969</v>
+        <v>84.750407</v>
       </c>
       <c r="H12">
-        <v>93.8765938314969</v>
+        <v>254.251221</v>
       </c>
       <c r="I12">
-        <v>0.1933119653958476</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J12">
-        <v>0.1933119653958476</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>11.1412173727476</v>
+        <v>0.001620666666666667</v>
       </c>
       <c r="N12">
-        <v>11.1412173727476</v>
+        <v>0.004862</v>
       </c>
       <c r="O12">
-        <v>0.5166578595964316</v>
+        <v>4.949959039648896E-05</v>
       </c>
       <c r="P12">
-        <v>0.5166578595964316</v>
+        <v>4.954707633626946E-05</v>
       </c>
       <c r="Q12">
-        <v>1045.899538089843</v>
+        <v>0.1373521596113333</v>
       </c>
       <c r="R12">
-        <v>1045.899538089843</v>
+        <v>1.236169436502</v>
       </c>
       <c r="S12">
-        <v>0.09987614627579805</v>
+        <v>7.339026472839828E-06</v>
       </c>
       <c r="T12">
-        <v>0.09987614627579805</v>
+        <v>8.056794832140059E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.8765938314969</v>
+        <v>84.750407</v>
       </c>
       <c r="H13">
-        <v>93.8765938314969</v>
+        <v>254.251221</v>
       </c>
       <c r="I13">
-        <v>0.1933119653958476</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J13">
-        <v>0.1933119653958476</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09391453425854809</v>
+        <v>0.1285833333333333</v>
       </c>
       <c r="N13">
-        <v>0.09391453425854809</v>
+        <v>0.38575</v>
       </c>
       <c r="O13">
-        <v>0.004355150844979071</v>
+        <v>0.003927286506673306</v>
       </c>
       <c r="P13">
-        <v>0.004355150844979071</v>
+        <v>0.003931054030587401</v>
       </c>
       <c r="Q13">
-        <v>8.816376587463921</v>
+        <v>10.89748983341667</v>
       </c>
       <c r="R13">
-        <v>8.816376587463921</v>
+        <v>98.07740850075</v>
       </c>
       <c r="S13">
-        <v>0.0008419027694382905</v>
+        <v>0.0005822767301312141</v>
       </c>
       <c r="T13">
-        <v>0.0008419027694382905</v>
+        <v>0.0006392243123196273</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>99.9269753578547</v>
+        <v>84.750407</v>
       </c>
       <c r="H14">
-        <v>99.9269753578547</v>
+        <v>254.251221</v>
       </c>
       <c r="I14">
-        <v>0.2057709937491167</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J14">
-        <v>0.2057709937491167</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.3288821998346</v>
+        <v>20.26120333333333</v>
       </c>
       <c r="N14">
-        <v>10.3288821998346</v>
+        <v>60.78361</v>
       </c>
       <c r="O14">
-        <v>0.4789869895585893</v>
+        <v>0.6188325376017957</v>
       </c>
       <c r="P14">
-        <v>0.4789869895585893</v>
+        <v>0.6194261959407716</v>
       </c>
       <c r="Q14">
-        <v>1032.133957057056</v>
+        <v>1717.145228809757</v>
       </c>
       <c r="R14">
-        <v>1032.133957057056</v>
+        <v>15454.30705928781</v>
       </c>
       <c r="S14">
-        <v>0.09856162883436871</v>
+        <v>0.09175082741768238</v>
       </c>
       <c r="T14">
-        <v>0.09856162883436871</v>
+        <v>0.1007242029878274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>99.9269753578547</v>
+        <v>84.750407</v>
       </c>
       <c r="H15">
-        <v>99.9269753578547</v>
+        <v>254.251221</v>
       </c>
       <c r="I15">
-        <v>0.2057709937491167</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J15">
-        <v>0.2057709937491167</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1412173727476</v>
+        <v>12.25546733333333</v>
       </c>
       <c r="N15">
-        <v>11.1412173727476</v>
+        <v>36.766402</v>
       </c>
       <c r="O15">
-        <v>0.5166578595964316</v>
+        <v>0.3743154749799779</v>
       </c>
       <c r="P15">
-        <v>0.5166578595964316</v>
+        <v>0.3746745632463945</v>
       </c>
       <c r="Q15">
-        <v>1113.308153863052</v>
+        <v>1038.655844475205</v>
       </c>
       <c r="R15">
-        <v>1113.308153863052</v>
+        <v>9347.902600276841</v>
       </c>
       <c r="S15">
-        <v>0.1063132011974494</v>
+        <v>0.05549765479001876</v>
       </c>
       <c r="T15">
-        <v>0.1063132011974494</v>
+        <v>0.06092541292266226</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.9269753578547</v>
+        <v>84.750407</v>
       </c>
       <c r="H16">
-        <v>99.9269753578547</v>
+        <v>254.251221</v>
       </c>
       <c r="I16">
-        <v>0.2057709937491167</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J16">
-        <v>0.2057709937491167</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09391453425854809</v>
+        <v>0.094137</v>
       </c>
       <c r="N16">
-        <v>0.09391453425854809</v>
+        <v>0.188274</v>
       </c>
       <c r="O16">
-        <v>0.004355150844979071</v>
+        <v>0.002875201321156488</v>
       </c>
       <c r="P16">
-        <v>0.004355150844979071</v>
+        <v>0.001918639705910077</v>
       </c>
       <c r="Q16">
-        <v>9.384595350598337</v>
+        <v>7.978149063758999</v>
       </c>
       <c r="R16">
-        <v>9.384595350598337</v>
+        <v>47.868894382554</v>
       </c>
       <c r="S16">
-        <v>0.0008961637172986489</v>
+        <v>0.0004262899640520709</v>
       </c>
       <c r="T16">
-        <v>0.0008961637172986489</v>
+        <v>0.0003119878630658859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>101.3352343333333</v>
+      </c>
+      <c r="H17">
+        <v>304.005703</v>
+      </c>
+      <c r="I17">
+        <v>0.1772782813185584</v>
+      </c>
+      <c r="J17">
+        <v>0.1944298562963656</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.001620666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.004862</v>
+      </c>
+      <c r="O17">
+        <v>4.949959039648896E-05</v>
+      </c>
+      <c r="P17">
+        <v>4.954707633626946E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.1642306364428889</v>
+      </c>
+      <c r="R17">
+        <v>1.478075727986</v>
+      </c>
+      <c r="S17">
+        <v>8.775202311462183E-06</v>
+      </c>
+      <c r="T17">
+        <v>9.633430931965929E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>101.3352343333333</v>
+      </c>
+      <c r="H18">
+        <v>304.005703</v>
+      </c>
+      <c r="I18">
+        <v>0.1772782813185584</v>
+      </c>
+      <c r="J18">
+        <v>0.1944298562963656</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1285833333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.38575</v>
+      </c>
+      <c r="O18">
+        <v>0.003927286506673306</v>
+      </c>
+      <c r="P18">
+        <v>0.003931054030587401</v>
+      </c>
+      <c r="Q18">
+        <v>13.03002221469444</v>
+      </c>
+      <c r="R18">
+        <v>117.27019993225</v>
+      </c>
+      <c r="S18">
+        <v>0.0006962226021486089</v>
+      </c>
+      <c r="T18">
+        <v>0.0007643142702603573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>101.3352343333333</v>
+      </c>
+      <c r="H19">
+        <v>304.005703</v>
+      </c>
+      <c r="I19">
+        <v>0.1772782813185584</v>
+      </c>
+      <c r="J19">
+        <v>0.1944298562963656</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.26120333333333</v>
+      </c>
+      <c r="N19">
+        <v>60.78361</v>
+      </c>
+      <c r="O19">
+        <v>0.6188325376017957</v>
+      </c>
+      <c r="P19">
+        <v>0.6194261959407716</v>
+      </c>
+      <c r="Q19">
+        <v>2053.173787658648</v>
+      </c>
+      <c r="R19">
+        <v>18478.56408892783</v>
+      </c>
+      <c r="S19">
+        <v>0.1097055686900485</v>
+      </c>
+      <c r="T19">
+        <v>0.1204349462629686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>101.3352343333333</v>
+      </c>
+      <c r="H20">
+        <v>304.005703</v>
+      </c>
+      <c r="I20">
+        <v>0.1772782813185584</v>
+      </c>
+      <c r="J20">
+        <v>0.1944298562963656</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N20">
+        <v>36.766402</v>
+      </c>
+      <c r="O20">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P20">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q20">
+        <v>1241.910654087845</v>
+      </c>
+      <c r="R20">
+        <v>11177.19588679061</v>
+      </c>
+      <c r="S20">
+        <v>0.06635800407539033</v>
+      </c>
+      <c r="T20">
+        <v>0.07284792148990003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>101.3352343333333</v>
+      </c>
+      <c r="H21">
+        <v>304.005703</v>
+      </c>
+      <c r="I21">
+        <v>0.1772782813185584</v>
+      </c>
+      <c r="J21">
+        <v>0.1944298562963656</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.094137</v>
+      </c>
+      <c r="N21">
+        <v>0.188274</v>
+      </c>
+      <c r="O21">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P21">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q21">
+        <v>9.539394954437</v>
+      </c>
+      <c r="R21">
+        <v>57.23636972662199</v>
+      </c>
+      <c r="S21">
+        <v>0.0005097107486594706</v>
+      </c>
+      <c r="T21">
+        <v>0.0003730408423045975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>151.2750305</v>
+      </c>
+      <c r="H22">
+        <v>302.550061</v>
+      </c>
+      <c r="I22">
+        <v>0.2646441545221851</v>
+      </c>
+      <c r="J22">
+        <v>0.1934988860478274</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.001620666666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.004862</v>
+      </c>
+      <c r="O22">
+        <v>4.949959039648896E-05</v>
+      </c>
+      <c r="P22">
+        <v>4.954707633626946E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.2451663994303333</v>
+      </c>
+      <c r="R22">
+        <v>1.470998396582</v>
+      </c>
+      <c r="S22">
+        <v>1.309977724967329E-05</v>
+      </c>
+      <c r="T22">
+        <v>9.587304077994809E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>151.2750305</v>
+      </c>
+      <c r="H23">
+        <v>302.550061</v>
+      </c>
+      <c r="I23">
+        <v>0.2646441545221851</v>
+      </c>
+      <c r="J23">
+        <v>0.1934988860478274</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1285833333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.38575</v>
+      </c>
+      <c r="O23">
+        <v>0.003927286506673306</v>
+      </c>
+      <c r="P23">
+        <v>0.003931054030587401</v>
+      </c>
+      <c r="Q23">
+        <v>19.45144767179166</v>
+      </c>
+      <c r="R23">
+        <v>116.70868603075</v>
+      </c>
+      <c r="S23">
+        <v>0.001039333417124943</v>
+      </c>
+      <c r="T23">
+        <v>0.000760654575912484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>151.2750305</v>
+      </c>
+      <c r="H24">
+        <v>302.550061</v>
+      </c>
+      <c r="I24">
+        <v>0.2646441545221851</v>
+      </c>
+      <c r="J24">
+        <v>0.1934988860478274</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>20.26120333333333</v>
+      </c>
+      <c r="N24">
+        <v>60.78361</v>
+      </c>
+      <c r="O24">
+        <v>0.6188325376017957</v>
+      </c>
+      <c r="P24">
+        <v>0.6194261959407716</v>
+      </c>
+      <c r="Q24">
+        <v>3065.014152216701</v>
+      </c>
+      <c r="R24">
+        <v>18390.08491330021</v>
+      </c>
+      <c r="S24">
+        <v>0.1637704137044455</v>
+      </c>
+      <c r="T24">
+        <v>0.1198582789033826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>151.2750305</v>
+      </c>
+      <c r="H25">
+        <v>302.550061</v>
+      </c>
+      <c r="I25">
+        <v>0.2646441545221851</v>
+      </c>
+      <c r="J25">
+        <v>0.1934988860478274</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.25546733333333</v>
+      </c>
+      <c r="N25">
+        <v>36.766402</v>
+      </c>
+      <c r="O25">
+        <v>0.3743154749799779</v>
+      </c>
+      <c r="P25">
+        <v>0.3746745632463945</v>
+      </c>
+      <c r="Q25">
+        <v>1853.946194641753</v>
+      </c>
+      <c r="R25">
+        <v>11123.67716785052</v>
+      </c>
+      <c r="S25">
+        <v>0.09906040240064638</v>
+      </c>
+      <c r="T25">
+        <v>0.07249911061863358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>151.2750305</v>
+      </c>
+      <c r="H26">
+        <v>302.550061</v>
+      </c>
+      <c r="I26">
+        <v>0.2646441545221851</v>
+      </c>
+      <c r="J26">
+        <v>0.1934988860478274</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.094137</v>
+      </c>
+      <c r="N26">
+        <v>0.188274</v>
+      </c>
+      <c r="O26">
+        <v>0.002875201321156488</v>
+      </c>
+      <c r="P26">
+        <v>0.001918639705910077</v>
+      </c>
+      <c r="Q26">
+        <v>14.2405775461785</v>
+      </c>
+      <c r="R26">
+        <v>56.96231018471399</v>
+      </c>
+      <c r="S26">
+        <v>0.0007609052227185283</v>
+      </c>
+      <c r="T26">
+        <v>0.000371254645820731</v>
       </c>
     </row>
   </sheetData>
